--- a/eMoneyTest_4.xlsx
+++ b/eMoneyTest_4.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinhPhan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinhPhan\Desktop\AutoTestJS\autotestJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECEF87-17CA-4D34-9A3A-A036BA31A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B1C60B-B05E-49E0-80DD-D9B3CDF366A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1090" windowWidth="21600" windowHeight="12760" xr2:uid="{1DE6FBCB-7F3C-4D5A-BFEC-A4422AF55C04}"/>
+    <workbookView xWindow="2820" yWindow="1090" windowWidth="21600" windowHeight="12760" activeTab="1" xr2:uid="{1DE6FBCB-7F3C-4D5A-BFEC-A4422AF55C04}"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionFlow" sheetId="1" r:id="rId1"/>
+    <sheet name="Flow2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>Element</t>
   </si>
@@ -429,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F93AEFF-9489-4A9F-9C4D-1DADC5525864}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,4 +586,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17119DA4-9A51-40B5-B67C-4719F92A898E}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>